--- a/product_asin.xlsx
+++ b/product_asin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gls\Desktop\Generator Prices\csv-to-html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{950F235B-65A3-435C-97B9-CB8AC6A77EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBB51FB2-C58F-4EF9-88EB-79E6D89AEA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1947D059-AD1B-4121-99BA-5BB721AA6EB8}"/>
   </bookViews>
